--- a/www.eia.gov/electricity/monthly/xls/table_1_09_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_09_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Table 1.9.A. Utility Scale Facility Net Generation from Nuclear Energy</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>NM</t>
   </si>
   <si>
     <t>Rhode Island</t>
@@ -1392,13 +1389,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>2960</v>
+        <v>2892</v>
       </c>
       <c r="C7" s="10">
-        <v>1461</v>
+        <v>2233</v>
       </c>
       <c r="D7" s="11">
-        <v>1.026</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E7" s="10">
         <v>0</v>
@@ -1407,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>2960</v>
+        <v>2892</v>
       </c>
       <c r="H7" s="10">
-        <v>1461</v>
+        <v>2233</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1430,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>1542</v>
+        <v>1502</v>
       </c>
       <c r="C8" s="13">
-        <v>963</v>
+        <v>1278</v>
       </c>
       <c r="D8" s="14">
-        <v>0.60099999999999998</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>1542</v>
+        <v>1502</v>
       </c>
       <c r="H8" s="13">
-        <v>963</v>
+        <v>1278</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1506,13 +1503,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="13">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="13">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D10" s="14">
-        <v>-1.4999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H10" s="13">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1544,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="C11" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>22</v>
+        <v>464</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.94099999999999995</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1559,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>928</v>
+        <v>901</v>
       </c>
       <c r="H11" s="13">
-        <v>0.14000000000000001</v>
+        <v>464</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1579,7 +1576,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="13">
         <v>0</v>
@@ -1617,7 +1614,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
@@ -1655,16 +1652,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>12589</v>
+        <v>12970</v>
       </c>
       <c r="C14" s="10">
-        <v>12702</v>
+        <v>12375</v>
       </c>
       <c r="D14" s="11">
-        <v>-8.9999999999999993E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>12589</v>
+        <v>12970</v>
       </c>
       <c r="H14" s="10">
-        <v>12702</v>
+        <v>12375</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1693,16 +1690,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>2385</v>
+        <v>2529</v>
       </c>
       <c r="C15" s="13">
-        <v>2777</v>
+        <v>2067</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.14099999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>2385</v>
+        <v>2529</v>
       </c>
       <c r="H15" s="13">
-        <v>2777</v>
+        <v>2067</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1731,16 +1728,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>3828</v>
+        <v>3440</v>
       </c>
       <c r="C16" s="13">
-        <v>3831</v>
+        <v>3814</v>
       </c>
       <c r="D16" s="14">
-        <v>-1E-3</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>3828</v>
+        <v>3440</v>
       </c>
       <c r="H16" s="13">
-        <v>3831</v>
+        <v>3814</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1769,16 +1766,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>6377</v>
+        <v>7001</v>
       </c>
       <c r="C17" s="13">
-        <v>6093</v>
+        <v>6494</v>
       </c>
       <c r="D17" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>6377</v>
+        <v>7001</v>
       </c>
       <c r="H17" s="13">
-        <v>6093</v>
+        <v>6494</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1807,28 +1804,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>12545</v>
+        <v>12585</v>
       </c>
       <c r="C18" s="10">
-        <v>11940</v>
+        <v>12502</v>
       </c>
       <c r="D18" s="11">
-        <v>5.0999999999999997E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E18" s="10">
-        <v>1704</v>
+        <v>1350</v>
       </c>
       <c r="F18" s="10">
-        <v>1620</v>
+        <v>1590</v>
       </c>
       <c r="G18" s="10">
-        <v>10841</v>
+        <v>11234</v>
       </c>
       <c r="H18" s="10">
-        <v>10320</v>
+        <v>10912</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1845,16 +1842,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>7758</v>
+        <v>8203</v>
       </c>
       <c r="C19" s="13">
-        <v>8013</v>
+        <v>7922</v>
       </c>
       <c r="D19" s="14">
-        <v>-3.2000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -1863,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>7758</v>
+        <v>8203</v>
       </c>
       <c r="H19" s="13">
-        <v>8013</v>
+        <v>7922</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="13">
         <v>0</v>
@@ -1921,28 +1918,28 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>2299</v>
+        <v>1930</v>
       </c>
       <c r="C21" s="13">
-        <v>1827</v>
+        <v>2174</v>
       </c>
       <c r="D21" s="14">
-        <v>0.25800000000000001</v>
+        <v>-0.112</v>
       </c>
       <c r="E21" s="13">
-        <v>1704</v>
+        <v>1350</v>
       </c>
       <c r="F21" s="13">
-        <v>1620</v>
+        <v>1590</v>
       </c>
       <c r="G21" s="13">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="H21" s="13">
-        <v>207</v>
+        <v>584</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1959,16 +1956,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="C22" s="13">
-        <v>1628</v>
+        <v>1581</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1977,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>1596</v>
+        <v>1582</v>
       </c>
       <c r="H22" s="13">
-        <v>1628</v>
+        <v>1581</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1997,16 +1994,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="C23" s="13">
-        <v>471</v>
+        <v>826</v>
       </c>
       <c r="D23" s="14">
-        <v>0.89100000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -2015,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="H23" s="13">
-        <v>471</v>
+        <v>826</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2035,28 +2032,28 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>2209</v>
+        <v>2936</v>
       </c>
       <c r="C24" s="10">
-        <v>4331</v>
+        <v>3892</v>
       </c>
       <c r="D24" s="11">
-        <v>-0.49</v>
+        <v>-0.246</v>
       </c>
       <c r="E24" s="10">
-        <v>2189</v>
+        <v>2518</v>
       </c>
       <c r="F24" s="10">
-        <v>3885</v>
+        <v>3453</v>
       </c>
       <c r="G24" s="10">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="H24" s="10">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -2073,16 +2070,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="C25" s="13">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D25" s="14">
-        <v>-0.95299999999999996</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2091,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="H25" s="13">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -2111,22 +2108,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>-5</v>
+        <v>245</v>
       </c>
       <c r="C26" s="13">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="D26" s="14">
-        <v>-1.006</v>
+        <v>-0.72099999999999997</v>
       </c>
       <c r="E26" s="13">
-        <v>-5</v>
+        <v>245</v>
       </c>
       <c r="F26" s="13">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2149,22 +2146,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>1046</v>
+        <v>993</v>
       </c>
       <c r="C27" s="13">
-        <v>1103</v>
+        <v>751</v>
       </c>
       <c r="D27" s="14">
-        <v>-5.0999999999999997E-2</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="E27" s="13">
-        <v>1046</v>
+        <v>993</v>
       </c>
       <c r="F27" s="13">
-        <v>1103</v>
+        <v>751</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2187,22 +2184,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="C28" s="13">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="D28" s="14">
-        <v>-8.0000000000000002E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E28" s="13">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="F28" s="13">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -2225,22 +2222,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>242</v>
+        <v>396</v>
       </c>
       <c r="C29" s="13">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.749</v>
+        <v>-0.57599999999999996</v>
       </c>
       <c r="E29" s="13">
-        <v>242</v>
+        <v>396</v>
       </c>
       <c r="F29" s="13">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2263,7 +2260,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="13">
         <v>0</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="13">
         <v>0</v>
@@ -2339,28 +2336,28 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>15943</v>
+        <v>16898</v>
       </c>
       <c r="C32" s="10">
-        <v>15025</v>
+        <v>14923</v>
       </c>
       <c r="D32" s="11">
-        <v>6.0999999999999999E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E32" s="10">
-        <v>14638</v>
+        <v>15618</v>
       </c>
       <c r="F32" s="10">
-        <v>13708</v>
+        <v>13642</v>
       </c>
       <c r="G32" s="10">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="H32" s="10">
-        <v>1317</v>
+        <v>1281</v>
       </c>
       <c r="I32" s="10">
         <v>0</v>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="13">
         <v>0</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="13">
         <v>0</v>
@@ -2453,22 +2450,22 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>1704</v>
+        <v>2402</v>
       </c>
       <c r="C35" s="13">
-        <v>1804</v>
+        <v>2031</v>
       </c>
       <c r="D35" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>0.183</v>
       </c>
       <c r="E35" s="13">
-        <v>1704</v>
+        <v>2402</v>
       </c>
       <c r="F35" s="13">
-        <v>1804</v>
+        <v>2031</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2491,22 +2488,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>3068</v>
+        <v>2983</v>
       </c>
       <c r="C36" s="13">
-        <v>2353</v>
+        <v>2987</v>
       </c>
       <c r="D36" s="14">
-        <v>0.30399999999999999</v>
+        <v>-1E-3</v>
       </c>
       <c r="E36" s="13">
-        <v>3068</v>
+        <v>2983</v>
       </c>
       <c r="F36" s="13">
-        <v>2353</v>
+        <v>2987</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2529,16 +2526,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="C37" s="13">
-        <v>1317</v>
+        <v>1281</v>
       </c>
       <c r="D37" s="14">
-        <v>-8.9999999999999993E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>1305</v>
+        <v>1280</v>
       </c>
       <c r="H37" s="13">
-        <v>1317</v>
+        <v>1281</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2567,22 +2564,22 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>3231</v>
+        <v>3447</v>
       </c>
       <c r="C38" s="13">
-        <v>3551</v>
+        <v>3645</v>
       </c>
       <c r="D38" s="14">
-        <v>-0.09</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>3231</v>
+        <v>3447</v>
       </c>
       <c r="F38" s="13">
-        <v>3551</v>
+        <v>3645</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
@@ -2605,22 +2602,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>4611</v>
+        <v>4349</v>
       </c>
       <c r="C39" s="13">
-        <v>3937</v>
+        <v>3327</v>
       </c>
       <c r="D39" s="14">
-        <v>0.17100000000000001</v>
+        <v>0.307</v>
       </c>
       <c r="E39" s="13">
-        <v>4611</v>
+        <v>4349</v>
       </c>
       <c r="F39" s="13">
-        <v>3937</v>
+        <v>3327</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2643,22 +2640,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>2024</v>
+        <v>2437</v>
       </c>
       <c r="C40" s="13">
-        <v>2062</v>
+        <v>1653</v>
       </c>
       <c r="D40" s="14">
-        <v>-1.9E-2</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="E40" s="13">
-        <v>2024</v>
+        <v>2437</v>
       </c>
       <c r="F40" s="13">
-        <v>2062</v>
+        <v>1653</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="13">
         <v>0</v>
@@ -2719,22 +2716,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>5384</v>
+        <v>6252</v>
       </c>
       <c r="C42" s="10">
-        <v>6729</v>
+        <v>6044</v>
       </c>
       <c r="D42" s="11">
-        <v>-0.2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>5384</v>
+        <v>6252</v>
       </c>
       <c r="F42" s="10">
-        <v>6729</v>
+        <v>6044</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2757,22 +2754,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>2287</v>
+        <v>3086</v>
       </c>
       <c r="C43" s="13">
-        <v>3823</v>
+        <v>3381</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.40200000000000002</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>2287</v>
+        <v>3086</v>
       </c>
       <c r="F43" s="13">
-        <v>3823</v>
+        <v>3381</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2795,7 +2792,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="13">
         <v>0</v>
@@ -2833,22 +2830,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="C45" s="13">
-        <v>1049</v>
+        <v>987</v>
       </c>
       <c r="D45" s="14">
         <v>-1.0129999999999999</v>
       </c>
       <c r="E45" s="13">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F45" s="13">
-        <v>1049</v>
+        <v>987</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -2871,22 +2868,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>3111</v>
+        <v>3179</v>
       </c>
       <c r="C46" s="13">
-        <v>1856</v>
+        <v>1676</v>
       </c>
       <c r="D46" s="14">
-        <v>0.67600000000000005</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E46" s="13">
-        <v>3111</v>
+        <v>3179</v>
       </c>
       <c r="F46" s="13">
-        <v>1856</v>
+        <v>1676</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2909,28 +2906,28 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>4461</v>
+        <v>5545</v>
       </c>
       <c r="C47" s="10">
-        <v>4381</v>
+        <v>3783</v>
       </c>
       <c r="D47" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="E47" s="10">
-        <v>1459</v>
+        <v>2242</v>
       </c>
       <c r="F47" s="10">
-        <v>1942</v>
+        <v>1511</v>
       </c>
       <c r="G47" s="10">
-        <v>3002</v>
+        <v>3304</v>
       </c>
       <c r="H47" s="10">
-        <v>2439</v>
+        <v>2273</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2947,22 +2944,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>78</v>
+        <v>709</v>
       </c>
       <c r="C48" s="13">
-        <v>627</v>
+        <v>949</v>
       </c>
       <c r="D48" s="14">
-        <v>-0.875</v>
+        <v>-0.254</v>
       </c>
       <c r="E48" s="13">
-        <v>78</v>
+        <v>709</v>
       </c>
       <c r="F48" s="13">
-        <v>627</v>
+        <v>949</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
@@ -2985,22 +2982,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>1381</v>
+        <v>1533</v>
       </c>
       <c r="C49" s="13">
-        <v>1315</v>
+        <v>561</v>
       </c>
       <c r="D49" s="14">
-        <v>0.05</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="E49" s="13">
-        <v>1381</v>
+        <v>1533</v>
       </c>
       <c r="F49" s="13">
-        <v>1315</v>
+        <v>561</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="13">
         <v>0</v>
@@ -3061,16 +3058,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>3002</v>
+        <v>3304</v>
       </c>
       <c r="C51" s="13">
-        <v>2439</v>
+        <v>2273</v>
       </c>
       <c r="D51" s="14">
-        <v>0.23100000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3079,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>3002</v>
+        <v>3304</v>
       </c>
       <c r="H51" s="13">
-        <v>2439</v>
+        <v>2273</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3099,22 +3096,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>2196</v>
+        <v>2661</v>
       </c>
       <c r="C52" s="10">
-        <v>2245</v>
+        <v>2337</v>
       </c>
       <c r="D52" s="11">
-        <v>-2.1999999999999999E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E52" s="10">
-        <v>2196</v>
+        <v>2661</v>
       </c>
       <c r="F52" s="10">
-        <v>2245</v>
+        <v>2337</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -3137,22 +3134,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>2196</v>
+        <v>2661</v>
       </c>
       <c r="C53" s="13">
-        <v>2245</v>
+        <v>2337</v>
       </c>
       <c r="D53" s="14">
-        <v>-2.1999999999999999E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E53" s="13">
-        <v>2196</v>
+        <v>2661</v>
       </c>
       <c r="F53" s="13">
-        <v>2245</v>
+        <v>2337</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="13">
         <v>0</v>
@@ -3213,7 +3210,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="13">
         <v>0</v>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="13">
         <v>0</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="13">
         <v>0</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="13">
         <v>0</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="13">
         <v>0</v>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="13">
         <v>0</v>
@@ -3441,22 +3438,22 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="C61" s="10">
-        <v>1758</v>
+        <v>2174</v>
       </c>
       <c r="D61" s="11">
-        <v>0.39100000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="E61" s="10">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="F61" s="10">
-        <v>1758</v>
+        <v>2174</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3479,22 +3476,22 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="C62" s="13">
-        <v>905</v>
+        <v>1370</v>
       </c>
       <c r="D62" s="14">
-        <v>0.77400000000000002</v>
+        <v>0.184</v>
       </c>
       <c r="E62" s="13">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="F62" s="13">
-        <v>905</v>
+        <v>1370</v>
       </c>
       <c r="G62" s="13">
         <v>0</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="13">
         <v>0</v>
@@ -3555,22 +3552,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="C64" s="13">
-        <v>853</v>
+        <v>804</v>
       </c>
       <c r="D64" s="14">
-        <v>-1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E64" s="13">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="F64" s="13">
-        <v>853</v>
+        <v>804</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="10">
         <v>0</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="13">
         <v>0</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="13">
         <v>0</v>
@@ -3707,28 +3704,28 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>60733</v>
+        <v>65179</v>
       </c>
       <c r="C68" s="10">
-        <v>60571</v>
+        <v>60264</v>
       </c>
       <c r="D68" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>30016</v>
+        <v>33082</v>
       </c>
       <c r="F68" s="10">
-        <v>31886</v>
+        <v>30751</v>
       </c>
       <c r="G68" s="10">
-        <v>30717</v>
+        <v>32097</v>
       </c>
       <c r="H68" s="10">
-        <v>28685</v>
+        <v>29513</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
